--- a/Projects/test_NGV/results/Queries_test_NGV.xlsx
+++ b/Projects/test_NGV/results/Queries_test_NGV.xlsx
@@ -517,252 +517,252 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5966027296001241</v>
+        <v>0.8203478767084872</v>
       </c>
       <c r="B2" t="n">
-        <v>0.05962250743613012</v>
+        <v>0.001086513575842801</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6136375421366982</v>
+        <v>0.06631509487359416</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7093200384283109</v>
+        <v>0.1930236180289215</v>
       </c>
       <c r="E2" t="n">
-        <v>0.996002525747673</v>
+        <v>0.9785662922462486</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8228777199295443</v>
+        <v>0.1007954608759566</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3775141893153139</v>
+        <v>0.02748911453551067</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9854533847746779</v>
+        <v>0.6285561629416712</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09123069749171088</v>
+        <v>0.1155976326465173</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1694474110599343</v>
+        <v>0.1135982786573315</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01878333979455735</v>
+        <v>0.0004204714946628111</v>
       </c>
       <c r="L2" t="n">
-        <v>0.08264516606658766</v>
+        <v>0.3049171482524412</v>
       </c>
       <c r="M2" t="n">
-        <v>0.002613482614127816</v>
+        <v>0.002756122943609959</v>
       </c>
       <c r="N2" t="n">
-        <v>85.79202056912301</v>
+        <v>86.36798469455205</v>
       </c>
       <c r="O2" t="n">
-        <v>0.002712034342990735</v>
+        <v>0.002126685082723037</v>
       </c>
       <c r="P2" t="n">
-        <v>80.93523385040177</v>
+        <v>79.70761205604278</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.5976827061566279</v>
+        <v>0.8991648326009486</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7953619778211192</v>
+        <v>0.631173859598062</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6134947859403665</v>
+        <v>0.3866717695200798</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1540547322397651</v>
+        <v>0.04784229570946263</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3100080622710343</v>
+        <v>0.03757954590383919</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8444754837289979</v>
+        <v>0.7487083983127145</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4077386821869631</v>
+        <v>0.5380814434887177</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7238943837904341</v>
+        <v>0.6295622200865737</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09873774509851811</v>
+        <v>0.060685350824333</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1088806199877037</v>
+        <v>0.04855317392394789</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03134345817025552</v>
+        <v>0.01863813298862306</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2442306240256177</v>
+        <v>0.007764583255510785</v>
       </c>
       <c r="M3" t="n">
-        <v>0.003650147868384746</v>
+        <v>0.003985695774382405</v>
       </c>
       <c r="N3" t="n">
-        <v>86.54649663585218</v>
+        <v>86.89891557495397</v>
       </c>
       <c r="O3" t="n">
-        <v>0.002067842166044074</v>
+        <v>0.002003179419549821</v>
       </c>
       <c r="P3" t="n">
-        <v>78.90114738929663</v>
+        <v>79.03271565141789</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9961041945088247</v>
+        <v>0.9973310988788816</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9995577204911568</v>
+        <v>0.9983881459565459</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9984047437451949</v>
+        <v>0.9751918875801048</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9972555269335032</v>
+        <v>0.9931704394274585</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9865339096215302</v>
+        <v>0.1641052176277731</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003441265361130522</v>
+        <v>0.9825567603929181</v>
       </c>
       <c r="G4" t="n">
-        <v>0.008135583945583447</v>
+        <v>0.8295804933994372</v>
       </c>
       <c r="H4" t="n">
-        <v>0.001402137783477614</v>
+        <v>0.9434719109747597</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0002569896668571033</v>
+        <v>3.597208826220863e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>2.281942078217555e-05</v>
+        <v>0.0002605410277099714</v>
       </c>
       <c r="K4" t="n">
-        <v>0.999977063453253</v>
+        <v>0.9999254068675228</v>
       </c>
       <c r="L4" t="n">
-        <v>0.000537666145694138</v>
+        <v>0.003683576095498532</v>
       </c>
       <c r="M4" t="n">
-        <v>0.002850970128565316</v>
+        <v>0.002857822808008309</v>
       </c>
       <c r="N4" t="n">
-        <v>90.80767569781145</v>
+        <v>90.44691725439451</v>
       </c>
       <c r="O4" t="n">
-        <v>0.002995015777296663</v>
+        <v>0.002834433265575362</v>
       </c>
       <c r="P4" t="n">
-        <v>83.17945435450456</v>
+        <v>83.18030691465425</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.9959557823230129</v>
+        <v>0.9994671183086894</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9973717479399028</v>
+        <v>0.01450990374632954</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9771230962641261</v>
+        <v>0.9989857156407178</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9961135482538984</v>
+        <v>0.9986784241482634</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01536844436940845</v>
+        <v>0.9935249332159437</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003050551154643699</v>
+        <v>0.01092137760428688</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0001080887698406846</v>
+        <v>0.6362970389079318</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0007491430225940344</v>
+        <v>0.9564740802480821</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0003491019230275566</v>
+        <v>0.02005392991781424</v>
       </c>
       <c r="J5" t="n">
-        <v>3.718372748906104e-05</v>
+        <v>1.360996508622571e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9997387592311813</v>
+        <v>0.9999612399942236</v>
       </c>
       <c r="L5" t="n">
-        <v>4.970251126449476e-05</v>
+        <v>0.003550357890211466</v>
       </c>
       <c r="M5" t="n">
-        <v>0.00289538208391069</v>
+        <v>0.002807002882587854</v>
       </c>
       <c r="N5" t="n">
-        <v>90.80734240068298</v>
+        <v>89.92675404352164</v>
       </c>
       <c r="O5" t="n">
-        <v>0.002803150024207823</v>
+        <v>0.003424488366157895</v>
       </c>
       <c r="P5" t="n">
-        <v>83.18029220210292</v>
+        <v>83.19214903288466</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9950808144159549</v>
+        <v>0.9983026200580483</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9898541708162671</v>
+        <v>0.9951672886799312</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9993597889639858</v>
+        <v>0.9923974881964951</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9998323816500316</v>
+        <v>0.9980865499559399</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02905576079501682</v>
+        <v>0.997267958239536</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01418632254983512</v>
+        <v>0.9671519109812563</v>
       </c>
       <c r="G6" t="n">
-        <v>0.06151181476520158</v>
+        <v>0.8526689482266597</v>
       </c>
       <c r="H6" t="n">
-        <v>0.002164873007810195</v>
+        <v>0.9921859966049458</v>
       </c>
       <c r="I6" t="n">
-        <v>0.998906039403857</v>
+        <v>0.002411654798382901</v>
       </c>
       <c r="J6" t="n">
-        <v>6.130211487512672e-05</v>
+        <v>0.9383409808727134</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9999253284172913</v>
+        <v>0.02132569908255438</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0115831315720809</v>
+        <v>0.003122463356072691</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002784163680344603</v>
+        <v>0.002592594808566663</v>
       </c>
       <c r="N6" t="n">
-        <v>90.51076246940303</v>
+        <v>87.91611444632512</v>
       </c>
       <c r="O6" t="n">
-        <v>0.002992472834049419</v>
+        <v>0.003046350218413149</v>
       </c>
       <c r="P6" t="n">
-        <v>83.31048703731643</v>
+        <v>83.3590597955606</v>
       </c>
     </row>
   </sheetData>
